--- a/0.Python/Basic_func/input/Book1.xlsx
+++ b/0.Python/Basic_func/input/Book1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -198,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,10 +579,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -645,6 +648,11 @@
           <t>Content Requirement</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Check Consistency</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="2" t="n">
@@ -694,7 +702,24 @@
           <t>Cust</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" s="12" t="inlineStr">
+        <is>
+          <t>[PO_01_RS_102654]
+IF «
+	"WriteDataByIdentifierRequest[Group 3 Xcp].bit 5" == 'Enabled' //[Group 3].bit 5: Activation of PDA message group 5
+THEN:
+	the function "Hella Developer Message Customizing Function" shall «
+process its inputs to calculate its outputs and send the Sensor(Hella)Development Messages on VCAN-Bus aftwards»
+ELSE: «
+	-Sending Sensor(Hella)Development Messages shall be stopped on VCAN.
+».</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2" t="n">
@@ -743,6 +768,7 @@
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="n">
@@ -793,6 +819,7 @@
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="2" t="n">
@@ -843,6 +870,7 @@
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="2" t="n">
@@ -881,7 +909,11 @@
           <t>ALL_ECUs</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="11" t="inlineStr">
         <is>
@@ -889,6 +921,7 @@
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="2" t="n">
@@ -927,7 +960,11 @@
           <t>ALL_ECUs</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
       <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="11" t="inlineStr">
         <is>
@@ -935,6 +972,7 @@
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="n">
@@ -981,6 +1019,7 @@
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="2" t="n">
@@ -1047,6 +1086,11 @@
 | (0x10 &amp; (VW_DTC0xE000EDStatusByte &amp; VW_DTC0xE000A8StatusByte &amp; VW_DTC0xD00017StatusByte &amp; VW_DTC0xD00019StatusByte &amp; VW_DTC0xE000B6StatusByte)))».</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="n">
@@ -1093,6 +1137,7 @@
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="2" t="n">
@@ -1143,6 +1188,7 @@
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="n">
@@ -1189,6 +1235,7 @@
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2" t="n">
@@ -1235,6 +1282,7 @@
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2" t="n">
@@ -1281,13 +1329,14 @@
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;1 &amp;K808080 INTERNAL &amp; PARTNERS#_x000d_</oddHeader>
-    <oddFooter>&amp;R&amp;"Calibri"&amp;2 &amp;KFFFFFF_x000d_# 5acXjzUk</oddFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000d_&amp;"Arial"&amp;11&amp;K000000&amp;"Calibri"&amp;1 &amp;K808080 INTERNAL &amp; PARTNERS#_x000d_</oddHeader>
+    <oddFooter>&amp;R&amp;"Calibri"&amp;2 &amp;KFFFFFF_x000d_# 5acXjzUk_x000d_&amp;1#&amp;"Calibri"&amp;2 &amp;KFFFFFF 5acXjzUk</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>

--- a/0.Python/Basic_func/input/Book1.xlsx
+++ b/0.Python/Basic_func/input/Book1.xlsx
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -201,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,13 +582,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="15.875" customWidth="1" min="12" max="12"/>
+    <col width="17.625" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
@@ -651,6 +658,11 @@
       <c r="M1" t="inlineStr">
         <is>
           <t>Check Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="13" t="inlineStr">
+        <is>
+          <t>TS_TestDesciption</t>
         </is>
       </c>
     </row>
@@ -720,6 +732,23 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="N2" s="12" t="inlineStr">
+        <is>
+          <t>**Precondition: 
+	1. Flashing of “XCPACTDEV” file*
+	(ex.
+	a.	5G3: FL_3WA907541F_&lt;Release&gt;_XCPACTDEV_XXXX_E.pdx
+	b.	5G5: FL_3WA907670F_&lt;Release&gt;_XCPACTDEV_XXXX_E.pdx)
+	2. SFD: available
+	3. Deactive all PDA group before check for each case
+CASE 1:
+Set: "WriteDataByIdentifierRequest[Group 3 Xcp].bit 5" == 'Enabled'
+Check: the Sensor(Hella)Development Messages is sent on VCAN-Bus
+CASE 2:
+Set: "WriteDataByIdentifierRequest[Group 3 Xcp].bit 5" &lt;&gt; 'Enabled'
+Check: Sending Sensor(Hella)Development Messages shall be stopped on VCAN.</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2" t="n">
@@ -769,6 +798,7 @@
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="n">
@@ -820,6 +850,7 @@
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="2" t="n">
@@ -871,6 +902,7 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="2" t="n">
@@ -922,6 +954,7 @@
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="2" t="n">
@@ -973,6 +1006,7 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="n">
@@ -1020,6 +1054,7 @@
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="2" t="n">
@@ -1091,6 +1126,7 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="n">
@@ -1138,6 +1174,7 @@
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="2" t="n">
@@ -1189,6 +1226,7 @@
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="n">
@@ -1236,6 +1274,7 @@
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2" t="n">
@@ -1283,6 +1322,7 @@
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2" t="n">
@@ -1330,12 +1370,13 @@
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000d_&amp;"Arial"&amp;11&amp;K000000&amp;"Calibri"&amp;1 &amp;K808080 INTERNAL &amp; PARTNERS#_x000d_</oddHeader>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;8&amp;K808080 INTERNAL &amp; PARTNERS&amp;1#_x000d_&amp;"Arial"&amp;11&amp;K000000&amp;"Arial"&amp;11&amp;K000000&amp;"Calibri"&amp;1 &amp;K808080 INTERNAL &amp; PARTNERS#_x000d_</oddHeader>
     <oddFooter>&amp;R&amp;"Calibri"&amp;2 &amp;KFFFFFF_x000d_# 5acXjzUk_x000d_&amp;1#&amp;"Calibri"&amp;2 &amp;KFFFFFF 5acXjzUk</oddFooter>
     <evenHeader/>
     <evenFooter/>

--- a/0.Python/Basic_func/input/Book1.xlsx
+++ b/0.Python/Basic_func/input/Book1.xlsx
@@ -582,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -665,6 +665,11 @@
           <t>TS_TestDesciption</t>
         </is>
       </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>File existed</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="2" t="n">
@@ -729,7 +734,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="N2" s="12" t="inlineStr">
@@ -749,6 +754,7 @@
 Check: Sending Sensor(Hella)Development Messages shall be stopped on VCAN.</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2" t="n">
@@ -799,6 +805,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="n">
@@ -851,6 +858,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="2" t="n">
@@ -903,6 +911,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="2" t="n">
@@ -955,6 +964,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="2" t="n">
@@ -1007,6 +1017,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="n">
@@ -1055,6 +1066,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="2" t="n">
@@ -1093,11 +1105,7 @@
           <t>2025-01-09 00:00:00</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>not_tested</t>
-        </is>
-      </c>
+      <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="11" t="inlineStr">
         <is>
@@ -1127,6 +1135,7 @@
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="n">
@@ -1175,6 +1184,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="2" t="n">
@@ -1215,7 +1225,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>Discarded</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr"/>
@@ -1227,6 +1237,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="n">
@@ -1275,6 +1286,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2" t="n">
@@ -1323,6 +1335,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2" t="n">
@@ -1371,6 +1384,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0.Python/Basic_func/input/Book1.xlsx
+++ b/0.Python/Basic_func/input/Book1.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="N2" s="12" t="inlineStr">
@@ -754,7 +754,11 @@
 Check: Sending Sensor(Hella)Development Messages shall be stopped on VCAN.</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2" t="n">
@@ -899,7 +903,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>passed</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr"/>
@@ -952,7 +956,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>passed</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
@@ -1056,7 +1060,11 @@
           <t>2025-01-09 00:00:00</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="11" t="inlineStr">
         <is>
@@ -1105,7 +1113,11 @@
           <t>2025-01-09 00:00:00</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="11" t="inlineStr">
         <is>
@@ -1131,11 +1143,15 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="n">
@@ -1174,7 +1190,11 @@
           <t>2025-01-09 00:00:00</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="11" t="inlineStr">
         <is>
@@ -1225,7 +1245,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr"/>
@@ -1276,17 +1296,29 @@
           <t>ALL_ECUs</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="11" t="inlineStr">
         <is>
-          <t>Cust</t>
+          <t>Diag</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2" t="n">
@@ -1325,7 +1357,11 @@
           <t>ALL_ECUs</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="11" t="inlineStr">
         <is>
@@ -1374,7 +1410,11 @@
           <t>ALL_ECUs</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
       <c r="J14" s="2" t="inlineStr"/>
       <c r="K14" s="11" t="inlineStr">
         <is>
